--- a/data/trans_orig/P6703-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P6703-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>5477</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1859</v>
+        <v>1901</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11434</v>
+        <v>11829</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01808824797863746</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006140814705422743</v>
+        <v>0.006277784227500031</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03775946203498613</v>
+        <v>0.03906606324795615</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -764,19 +764,19 @@
         <v>3972</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12108</v>
+        <v>11613</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02042941028180823</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005192390835417007</v>
+        <v>0.005206817043433194</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06227714319330051</v>
+        <v>0.05973355947723522</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -785,19 +785,19 @@
         <v>9449</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4469</v>
+        <v>4661</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18263</v>
+        <v>18685</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01900365300209983</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008988239933947583</v>
+        <v>0.009375043112072703</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03673013147231263</v>
+        <v>0.03757872204629793</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>11204</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5770</v>
+        <v>5806</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19507</v>
+        <v>20989</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03700069429498219</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01905414802239034</v>
+        <v>0.01917372907145145</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06442212332542673</v>
+        <v>0.06931639165836369</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -835,19 +835,19 @@
         <v>7502</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3188</v>
+        <v>3345</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15034</v>
+        <v>14996</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03858564436831273</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01639661156270965</v>
+        <v>0.01720406871565775</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07733191815485607</v>
+        <v>0.07713601194300895</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -856,19 +856,19 @@
         <v>18706</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11059</v>
+        <v>11242</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>29663</v>
+        <v>29114</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03762041692467721</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02224159232503014</v>
+        <v>0.02260967198713574</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05965887252772535</v>
+        <v>0.05855462053576838</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>52570</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>39972</v>
+        <v>39752</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>68064</v>
+        <v>69728</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1736118988366286</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1320069729352009</v>
+        <v>0.1312789753939337</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2247807063983048</v>
+        <v>0.2302738120298563</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>34</v>
@@ -906,19 +906,19 @@
         <v>37520</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25950</v>
+        <v>27214</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>50984</v>
+        <v>50937</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.192989725422533</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1334777531638008</v>
+        <v>0.1399792086365876</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.262246603991735</v>
+        <v>0.262002251589839</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>83</v>
@@ -927,19 +927,19 @@
         <v>90090</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>72428</v>
+        <v>73096</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>107969</v>
+        <v>107843</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1811887164611457</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1456658647915051</v>
+        <v>0.1470107415367496</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2171458963593136</v>
+        <v>0.2168925604908614</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>104849</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>86686</v>
+        <v>89520</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>120733</v>
+        <v>122310</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3462616764182571</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2862783864048896</v>
+        <v>0.2956383500445032</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3987164238196031</v>
+        <v>0.4039255582336221</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>51</v>
@@ -977,19 +977,19 @@
         <v>57825</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>44654</v>
+        <v>45329</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>71970</v>
+        <v>72279</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2974304906380784</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2296868151545357</v>
+        <v>0.2331585093861579</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3701894550439955</v>
+        <v>0.3717810192911093</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>151</v>
@@ -998,19 +998,19 @@
         <v>162674</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>141279</v>
+        <v>140905</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>184809</v>
+        <v>184164</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3271684624602759</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2841401564700104</v>
+        <v>0.2833882063247887</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3716867285060911</v>
+        <v>0.3703902759531194</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>128703</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>109723</v>
+        <v>110496</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>147322</v>
+        <v>146992</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4250374824714947</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3623572616712129</v>
+        <v>0.3649090374530582</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4865273127015631</v>
+        <v>0.4854368221310782</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>81</v>
@@ -1048,19 +1048,19 @@
         <v>87596</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>73739</v>
+        <v>72904</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>103398</v>
+        <v>102264</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4505647292892677</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3792874463083212</v>
+        <v>0.3749911400944995</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5318443436778791</v>
+        <v>0.5260132182742834</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>199</v>
@@ -1069,19 +1069,19 @@
         <v>216299</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>194346</v>
+        <v>192303</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>241827</v>
+        <v>240274</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4350187511518014</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3908683934130159</v>
+        <v>0.3867577555629604</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4863612762373979</v>
+        <v>0.4832380819938718</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>3001</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>952</v>
+        <v>969</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8228</v>
+        <v>7804</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01165416859390576</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003698126112657938</v>
+        <v>0.003763889782280022</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03194987705060492</v>
+        <v>0.03030481235622021</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5719</v>
+        <v>5019</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005902637015168291</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03423687312946146</v>
+        <v>0.03004941097430833</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1215,19 +1215,19 @@
         <v>3987</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>985</v>
+        <v>994</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9114</v>
+        <v>10001</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009391370837463954</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002319966880789216</v>
+        <v>0.002341594882884116</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02146743292685653</v>
+        <v>0.02355467388447125</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>3959</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14166</v>
+        <v>11859</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01537174831557455</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003437339147264515</v>
+        <v>0.003412504979444244</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05500841481489817</v>
+        <v>0.04604949509307428</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -1265,19 +1265,19 @@
         <v>8994</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4804</v>
+        <v>4130</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15974</v>
+        <v>16880</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05384720111539387</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0287617595782007</v>
+        <v>0.02472267842450534</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09563163919230989</v>
+        <v>0.1010568209307832</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>12</v>
@@ -1286,19 +1286,19 @@
         <v>12953</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7055</v>
+        <v>7190</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>21871</v>
+        <v>22875</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03050896300033247</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01661579677636799</v>
+        <v>0.01693432619996223</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05151456970645948</v>
+        <v>0.05387890627520382</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>52413</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>38737</v>
+        <v>40211</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>65731</v>
+        <v>68146</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2035219997530344</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.150415781618231</v>
+        <v>0.1561416883567276</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2552344572912084</v>
+        <v>0.2646099674924727</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>31</v>
@@ -1336,19 +1336,19 @@
         <v>32660</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>23335</v>
+        <v>22819</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>44438</v>
+        <v>43427</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1955269106737088</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1397001190210121</v>
+        <v>0.1366131710572186</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2660397678867287</v>
+        <v>0.2599844477269044</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>79</v>
@@ -1357,19 +1357,19 @@
         <v>85073</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>69420</v>
+        <v>69234</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>105535</v>
+        <v>101995</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.200376529823228</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1635081509666167</v>
+        <v>0.1630700739346689</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2485702833524969</v>
+        <v>0.2402334152739766</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>85318</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>71362</v>
+        <v>70347</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>101324</v>
+        <v>101744</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3312893907275705</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.277097778340554</v>
+        <v>0.2731597646473389</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3934425358205408</v>
+        <v>0.3950738590517097</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -1407,19 +1407,19 @@
         <v>49399</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37681</v>
+        <v>36973</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>63171</v>
+        <v>63019</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2957374307131888</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.225586054454289</v>
+        <v>0.2213489489001194</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3781889897422619</v>
+        <v>0.3772797607856582</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>121</v>
@@ -1428,19 +1428,19 @@
         <v>134716</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>115921</v>
+        <v>116739</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>154203</v>
+        <v>155043</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3173023519264533</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2730335813859965</v>
+        <v>0.2749601436933986</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3632011117372322</v>
+        <v>0.3651779354961949</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>112841</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>96470</v>
+        <v>97075</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>129661</v>
+        <v>130029</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4381626926099148</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3745944956098058</v>
+        <v>0.3769449481361853</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5034754405203481</v>
+        <v>0.5049033217889163</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>68</v>
@@ -1478,19 +1478,19 @@
         <v>74996</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>61773</v>
+        <v>61697</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>89159</v>
+        <v>88534</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4489858204825403</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3698195734816103</v>
+        <v>0.3693670492509465</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5337761055390483</v>
+        <v>0.5300335710021232</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>167</v>
@@ -1499,19 +1499,19 @@
         <v>187837</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>165246</v>
+        <v>165044</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>208559</v>
+        <v>208100</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4424207844125221</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3892109806901565</v>
+        <v>0.3887351477391044</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4912269184370938</v>
+        <v>0.4901456120250355</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>4046</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1033</v>
+        <v>1064</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10374</v>
+        <v>10224</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01441898646953487</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003680544769538328</v>
+        <v>0.003791185917633943</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03697207929783955</v>
+        <v>0.03643925110860265</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1624,19 +1624,19 @@
         <v>4141</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9762</v>
+        <v>10716</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03737347380202051</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009064141260718833</v>
+        <v>0.009116709692539813</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08811391598395162</v>
+        <v>0.09672665963032535</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1645,19 +1645,19 @@
         <v>8186</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3924</v>
+        <v>4017</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15164</v>
+        <v>16319</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02091680182900652</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01002586472281445</v>
+        <v>0.01026402611410974</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03874382773848028</v>
+        <v>0.04169738398675876</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>7960</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3814</v>
+        <v>3895</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15157</v>
+        <v>15300</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02836801750913379</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01359419052084164</v>
+        <v>0.01388184314003127</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05401736936886223</v>
+        <v>0.05452829956694676</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1695,19 +1695,19 @@
         <v>5017</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1956</v>
+        <v>1918</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10818</v>
+        <v>10407</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04528175292640027</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01765904813314798</v>
+        <v>0.01730861636364416</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09764788685692388</v>
+        <v>0.0939357730293819</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -1716,19 +1716,19 @@
         <v>12977</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7622</v>
+        <v>7335</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>21754</v>
+        <v>21317</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03315585389983453</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01947538528624982</v>
+        <v>0.0187419364415899</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05558205415206857</v>
+        <v>0.05446558453500122</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>70012</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>56700</v>
+        <v>56337</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>84966</v>
+        <v>86779</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2495186787504438</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2020758217382467</v>
+        <v>0.2007808894144454</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.302812493416926</v>
+        <v>0.309274967039152</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>15</v>
@@ -1766,19 +1766,19 @@
         <v>17137</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>10267</v>
+        <v>10156</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>26858</v>
+        <v>27350</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1546826659285405</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0926726842667487</v>
+        <v>0.09166967061428613</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2424247238769144</v>
+        <v>0.2468646976075683</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>84</v>
@@ -1787,19 +1787,19 @@
         <v>87150</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>70334</v>
+        <v>70961</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>103535</v>
+        <v>104296</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2226730824267517</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1797069293128193</v>
+        <v>0.1813113778211202</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2645377554974692</v>
+        <v>0.2664842676061703</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>81596</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>66255</v>
+        <v>66397</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>98876</v>
+        <v>97907</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2908023950935556</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2361257651471327</v>
+        <v>0.2366343870678526</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.352387710674556</v>
+        <v>0.3489312670550859</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>31</v>
@@ -1837,19 +1837,19 @@
         <v>32372</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>23139</v>
+        <v>23636</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>41868</v>
+        <v>42262</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2921913624385742</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2088575751989702</v>
+        <v>0.2133432602289153</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.377909959013516</v>
+        <v>0.3814673696553401</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>111</v>
@@ -1858,19 +1858,19 @@
         <v>113968</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>97540</v>
+        <v>95659</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>133734</v>
+        <v>132707</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2911955754428938</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2492218064166608</v>
+        <v>0.2444144683116269</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3417002963752742</v>
+        <v>0.3390761746008462</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>116976</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>99649</v>
+        <v>98721</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>133277</v>
+        <v>133432</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4168919221773319</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3551421863428839</v>
+        <v>0.3518343656781577</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4749900586610988</v>
+        <v>0.4755405345376029</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>50</v>
@@ -1908,19 +1908,19 @@
         <v>52123</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>41508</v>
+        <v>41941</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>63593</v>
+        <v>63073</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4704707449044645</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3746609376430505</v>
+        <v>0.3785686792640655</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5739993057559356</v>
+        <v>0.5693078603743752</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>163</v>
@@ -1929,19 +1929,19 @@
         <v>169099</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>149369</v>
+        <v>150476</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>189612</v>
+        <v>189107</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4320586864015134</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3816485119000598</v>
+        <v>0.3844767505642785</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4844724268410046</v>
+        <v>0.4831804200262839</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>8983</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4038</v>
+        <v>4039</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18071</v>
+        <v>17434</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02113660661558242</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009500975798534822</v>
+        <v>0.009503091370242479</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04252084030772481</v>
+        <v>0.04102183856571598</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>15</v>
@@ -2054,19 +2054,19 @@
         <v>17561</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10618</v>
+        <v>10317</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>28682</v>
+        <v>27441</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05856998059346764</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03541199717064345</v>
+        <v>0.0344083677959147</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09566223247733566</v>
+        <v>0.09152343758125438</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>23</v>
@@ -2075,19 +2075,19 @@
         <v>26544</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>17296</v>
+        <v>17475</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>39825</v>
+        <v>38467</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03662111880505133</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02386229153275222</v>
+        <v>0.02410898467837403</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05494445674468062</v>
+        <v>0.05307088348650196</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>9238</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4170</v>
+        <v>4042</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16807</v>
+        <v>15535</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02173713308309514</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.009810779958324287</v>
+        <v>0.009511078422369436</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03954619117567432</v>
+        <v>0.03655185684371708</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -2125,19 +2125,19 @@
         <v>5404</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2117</v>
+        <v>2062</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>11648</v>
+        <v>11841</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01802321542439743</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.007059855940745953</v>
+        <v>0.006877494612435505</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03884785284451737</v>
+        <v>0.03949211012881425</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>14</v>
@@ -2146,19 +2146,19 @@
         <v>14642</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>8494</v>
+        <v>8286</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>24676</v>
+        <v>24035</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02020085149408414</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01171822454659147</v>
+        <v>0.01143201488449897</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03404331369863385</v>
+        <v>0.03315957569740449</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>70840</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>55729</v>
+        <v>56126</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>89559</v>
+        <v>89216</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1666826450056204</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1311283828769497</v>
+        <v>0.1320619680687382</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2107277267336954</v>
+        <v>0.2099207173031189</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>54</v>
@@ -2196,19 +2196,19 @@
         <v>56872</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>43198</v>
+        <v>44739</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>71733</v>
+        <v>72199</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1896803615437746</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1440765538540601</v>
+        <v>0.1492167194908025</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.239247954680411</v>
+        <v>0.2407994250015363</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>123</v>
@@ -2217,19 +2217,19 @@
         <v>127711</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>106015</v>
+        <v>108568</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>148168</v>
+        <v>148664</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1761957715080666</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1462618879768707</v>
+        <v>0.1497846911209149</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2044185043304767</v>
+        <v>0.2051020620553136</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>110026</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>90857</v>
+        <v>93370</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>127702</v>
+        <v>130479</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.258886103754019</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2137816760772949</v>
+        <v>0.2196939957065028</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3004759718208961</v>
+        <v>0.307010565049078</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>79</v>
@@ -2267,19 +2267,19 @@
         <v>84323</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>70389</v>
+        <v>70266</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>103801</v>
+        <v>100333</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2812378053280408</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2347626950196337</v>
+        <v>0.234354499223024</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3462013790971035</v>
+        <v>0.3346341223461983</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>185</v>
@@ -2288,19 +2288,19 @@
         <v>194349</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>168816</v>
+        <v>170392</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>218979</v>
+        <v>218274</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2681320027660285</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2329057269653907</v>
+        <v>0.2350800181751014</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3021118685257325</v>
+        <v>0.3011387751273805</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>225911</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>203795</v>
+        <v>205898</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>248690</v>
+        <v>248125</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.531557511541683</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4795180923608983</v>
+        <v>0.4844674074967655</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.585155156748142</v>
+        <v>0.5838248928364399</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>129</v>
@@ -2338,19 +2338,19 @@
         <v>135669</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>118062</v>
+        <v>119510</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>153010</v>
+        <v>154721</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4524886371103196</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3937654659137104</v>
+        <v>0.3985925492469195</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5103233093743957</v>
+        <v>0.5160304968174531</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>336</v>
@@ -2359,19 +2359,19 @@
         <v>361580</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>333132</v>
+        <v>328678</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>390278</v>
+        <v>387303</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4988502554267694</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4596014281543475</v>
+        <v>0.4534573436422608</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5384426557355768</v>
+        <v>0.5343378950511056</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>6562</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2414</v>
+        <v>2636</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>13010</v>
+        <v>15001</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04291744916754281</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01579236116152786</v>
+        <v>0.0172404324458487</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08509382005320319</v>
+        <v>0.09811804049160301</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -2484,19 +2484,19 @@
         <v>3244</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>977</v>
+        <v>987</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8820</v>
+        <v>10263</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01867033373212067</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.00562131059291406</v>
+        <v>0.005678240119468395</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05075791859865451</v>
+        <v>0.05905772647053516</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>9</v>
@@ -2505,19 +2505,19 @@
         <v>9806</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4817</v>
+        <v>4485</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>17887</v>
+        <v>18188</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03001871648521003</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01474666575137205</v>
+        <v>0.01373103370829663</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05475743174034339</v>
+        <v>0.05567741112643465</v>
       </c>
     </row>
     <row r="29">
@@ -2537,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7535</v>
+        <v>8159</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01519624943245405</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04928658829067244</v>
+        <v>0.05336557028325806</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -2555,19 +2555,19 @@
         <v>6845</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2350</v>
+        <v>2376</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>13747</v>
+        <v>13771</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03938752544334004</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01352254379195323</v>
+        <v>0.01367553442535592</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07910839107997088</v>
+        <v>0.07924688790321516</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8</v>
@@ -2576,19 +2576,19 @@
         <v>9168</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4288</v>
+        <v>4576</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>16517</v>
+        <v>17829</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02806527722835837</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.013126970741495</v>
+        <v>0.01400679032917206</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05056402898698475</v>
+        <v>0.05457794654908685</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>22750</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>15032</v>
+        <v>14970</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>32533</v>
+        <v>32321</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1488025226036334</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09831922594044605</v>
+        <v>0.09791754534411166</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2127917398387754</v>
+        <v>0.2114040371619691</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>26</v>
@@ -2626,19 +2626,19 @@
         <v>28441</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>19325</v>
+        <v>19844</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>39596</v>
+        <v>39785</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1636631827438872</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1112054488988511</v>
+        <v>0.1141912939008115</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2278583520360909</v>
+        <v>0.2289452590415726</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>49</v>
@@ -2647,19 +2647,19 @@
         <v>51191</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>39213</v>
+        <v>39088</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>66312</v>
+        <v>65893</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1567079447204475</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1200410917610402</v>
+        <v>0.1196574805604584</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2029968744318265</v>
+        <v>0.2017141602614151</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>45202</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>33729</v>
+        <v>33395</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>56557</v>
+        <v>57816</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2956553003092132</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2206140800273898</v>
+        <v>0.2184264105783995</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3699269954867512</v>
+        <v>0.3781568845007974</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>49</v>
@@ -2697,19 +2697,19 @@
         <v>54281</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>42135</v>
+        <v>41684</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>66407</v>
+        <v>68013</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3123662402153808</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2424701606795273</v>
+        <v>0.2398733445389442</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3821414734032025</v>
+        <v>0.3913855257624476</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>90</v>
@@ -2718,19 +2718,19 @@
         <v>99484</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>82595</v>
+        <v>82378</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>115341</v>
+        <v>116348</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3045450153474519</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2528447199316259</v>
+        <v>0.2521818635029914</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3530880922080078</v>
+        <v>0.3561707466633314</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>76051</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>63753</v>
+        <v>63230</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>89503</v>
+        <v>88299</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4974284784871565</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4169887932233831</v>
+        <v>0.4135698182132277</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5854145127587151</v>
+        <v>0.5775427722251303</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>74</v>
@@ -2768,19 +2768,19 @@
         <v>80964</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>67525</v>
+        <v>68004</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>94567</v>
+        <v>94616</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4659127178652713</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3885776323633547</v>
+        <v>0.3913320647449573</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5441911544204112</v>
+        <v>0.5444732238809273</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>146</v>
@@ -2789,19 +2789,19 @@
         <v>157015</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>139953</v>
+        <v>137850</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>177156</v>
+        <v>175352</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4806630462185321</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4284333309363409</v>
+        <v>0.4219944057336392</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5423213904816711</v>
+        <v>0.5367979908354497</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>28069</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>19083</v>
+        <v>19086</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>40987</v>
+        <v>39895</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01978340317425294</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01345002772434939</v>
+        <v>0.01345240727152238</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02888815342863404</v>
+        <v>0.02811891496009403</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>26</v>
@@ -2914,19 +2914,19 @@
         <v>29904</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>19547</v>
+        <v>19937</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>44194</v>
+        <v>42182</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03161593385223081</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02066613714088403</v>
+        <v>0.02107820487277248</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04672500332451643</v>
+        <v>0.04459724877805531</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>53</v>
@@ -2935,19 +2935,19 @@
         <v>57973</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>43756</v>
+        <v>43346</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>75168</v>
+        <v>75962</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02451631945064568</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01850407711260508</v>
+        <v>0.01833087642458521</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03178834354632456</v>
+        <v>0.03212390090405641</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>34684</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>22904</v>
+        <v>24259</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>47982</v>
+        <v>48653</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02444580557024714</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01614342441638248</v>
+        <v>0.01709819986133003</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03381814932299935</v>
+        <v>0.03429131104035522</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>32</v>
@@ -2985,19 +2985,19 @@
         <v>33761</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>23520</v>
+        <v>24208</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>47341</v>
+        <v>46360</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.0356942718825479</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02486637482159908</v>
+        <v>0.02559360183424097</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.05005215585857668</v>
+        <v>0.04901495830452568</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>64</v>
@@ -3006,19 +3006,19 @@
         <v>68445</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>54169</v>
+        <v>54068</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>86132</v>
+        <v>87236</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0289451008387587</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02290784297321949</v>
+        <v>0.02286517618510017</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03642476827644889</v>
+        <v>0.03689147483364522</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>268586</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>238698</v>
+        <v>238672</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>300258</v>
+        <v>301142</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1893035446694815</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1682382389303095</v>
+        <v>0.1682198292489861</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2116262662801427</v>
+        <v>0.212249468308206</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>160</v>
@@ -3056,19 +3056,19 @@
         <v>172629</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>149326</v>
+        <v>149090</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>200368</v>
+        <v>197555</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1825136980403396</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1578765835126442</v>
+        <v>0.1576266873776836</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.211840764440049</v>
+        <v>0.2088671934996645</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>418</v>
@@ -3077,19 +3077,19 @@
         <v>441215</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>404210</v>
+        <v>405377</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>484937</v>
+        <v>479971</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1865876611024027</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.170938332375054</v>
+        <v>0.1714318376187149</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2050773777508055</v>
+        <v>0.2029775209182785</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>426991</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>388568</v>
+        <v>388191</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>458761</v>
+        <v>462038</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3009499576949664</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2738684264243056</v>
+        <v>0.2736028644621226</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3233417627184575</v>
+        <v>0.3256517210597368</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>253</v>
@@ -3127,19 +3127,19 @@
         <v>278199</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>250077</v>
+        <v>250220</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>308345</v>
+        <v>306055</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2941288707614935</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2643961106932654</v>
+        <v>0.2645477311676855</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.326000054140668</v>
+        <v>0.3235789205149696</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>658</v>
@@ -3148,19 +3148,19 @@
         <v>705191</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>653890</v>
+        <v>652877</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>750279</v>
+        <v>748716</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2982215782596011</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2765266423050003</v>
+        <v>0.2760983357441438</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3172891794612335</v>
+        <v>0.3166283676376778</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>660481</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>619216</v>
+        <v>621509</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>699930</v>
+        <v>700280</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.465517288891052</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4364328067959009</v>
+        <v>0.43804941352817</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4933211900517539</v>
+        <v>0.4935679122876244</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>402</v>
@@ -3198,19 +3198,19 @@
         <v>431349</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>398233</v>
+        <v>403898</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>462684</v>
+        <v>462810</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4560472254633882</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.421035373266841</v>
+        <v>0.4270243315191739</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4891767455470133</v>
+        <v>0.4893095260679478</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1011</v>
@@ -3219,19 +3219,19 @@
         <v>1091830</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1043665</v>
+        <v>1043808</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1140171</v>
+        <v>1148520</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4617293403485919</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4413607747430279</v>
+        <v>0.4414212270679276</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4821727236864516</v>
+        <v>0.4857033223698091</v>
       </c>
     </row>
     <row r="39">
@@ -3564,19 +3564,19 @@
         <v>6840</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2413</v>
+        <v>2982</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13784</v>
+        <v>14464</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02477929143958102</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008742578937411392</v>
+        <v>0.01080398209291672</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04993137188373357</v>
+        <v>0.05239528625662529</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -3585,19 +3585,19 @@
         <v>6584</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3012</v>
+        <v>2800</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13224</v>
+        <v>12932</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03074350824488474</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01406275568988101</v>
+        <v>0.01307199991346406</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06174353411645303</v>
+        <v>0.06037893968804341</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -3606,19 +3606,19 @@
         <v>13425</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7735</v>
+        <v>7567</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22413</v>
+        <v>22689</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02738498724494491</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0157793504879277</v>
+        <v>0.01543565128881833</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04572056694467048</v>
+        <v>0.04628333566001118</v>
       </c>
     </row>
     <row r="5">
@@ -3635,19 +3635,19 @@
         <v>18084</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10524</v>
+        <v>11048</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28434</v>
+        <v>28029</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06550894709310973</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03812480500244064</v>
+        <v>0.04002295707271122</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1030002395419981</v>
+        <v>0.1015348346378371</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -3656,19 +3656,19 @@
         <v>9592</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4565</v>
+        <v>4894</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17962</v>
+        <v>18150</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04478466789658105</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02131354519715415</v>
+        <v>0.0228524698726694</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08386754431911847</v>
+        <v>0.0847440001785035</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>26</v>
@@ -3677,19 +3677,19 @@
         <v>27676</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>18440</v>
+        <v>18312</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>40014</v>
+        <v>39054</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05645475454203341</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03761466077804868</v>
+        <v>0.03735361199022874</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08162325341161071</v>
+        <v>0.07966489537630742</v>
       </c>
     </row>
     <row r="6">
@@ -3706,19 +3706,19 @@
         <v>40136</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>30024</v>
+        <v>30088</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>55334</v>
+        <v>54361</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1453914659815199</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1087612327653699</v>
+        <v>0.1089927986836011</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2004468163478247</v>
+        <v>0.1969240640613804</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>37</v>
@@ -3727,19 +3727,19 @@
         <v>38361</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>28243</v>
+        <v>28048</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>51675</v>
+        <v>50027</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1791113272955613</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1318701693891358</v>
+        <v>0.1309581187566603</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2412752753349006</v>
+        <v>0.233579519995491</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>75</v>
@@ -3748,19 +3748,19 @@
         <v>78497</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>63481</v>
+        <v>62473</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>95923</v>
+        <v>94991</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1601232747087473</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1294924999699719</v>
+        <v>0.1274365436189757</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1956699923651151</v>
+        <v>0.1937689437496106</v>
       </c>
     </row>
     <row r="7">
@@ -3777,19 +3777,19 @@
         <v>94421</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>77223</v>
+        <v>78470</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>112128</v>
+        <v>111505</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3420405641538578</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2797413442551665</v>
+        <v>0.2842572343942701</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.406182260242215</v>
+        <v>0.4039247132197833</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>66</v>
@@ -3798,19 +3798,19 @@
         <v>67149</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>54360</v>
+        <v>53960</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>80644</v>
+        <v>81154</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3135253247331306</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2538109479362</v>
+        <v>0.2519457353129001</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3765365759577787</v>
+        <v>0.3789160947362007</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>153</v>
@@ -3819,19 +3819,19 @@
         <v>161570</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>140359</v>
+        <v>141838</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>183574</v>
+        <v>184010</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3295825931958835</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2863146171525343</v>
+        <v>0.289331794615119</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3744677459618723</v>
+        <v>0.3753573410520222</v>
       </c>
     </row>
     <row r="8">
@@ -3848,19 +3848,19 @@
         <v>116572</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>101106</v>
+        <v>98937</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>136128</v>
+        <v>135481</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4222797313319315</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3662542271256813</v>
+        <v>0.3583988156007414</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4931227404761153</v>
+        <v>0.4907776077999699</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>90</v>
@@ -3869,19 +3869,19 @@
         <v>92488</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>77812</v>
+        <v>77530</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>107348</v>
+        <v>107336</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4318351718298423</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3633133195939761</v>
+        <v>0.3619946233000704</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.501219393483911</v>
+        <v>0.5011605746495463</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>194</v>
@@ -3890,19 +3890,19 @@
         <v>209059</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>187073</v>
+        <v>188697</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>231522</v>
+        <v>231049</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4264543903083908</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3816052315714344</v>
+        <v>0.3849169238112158</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4722751429254511</v>
+        <v>0.4713099036334709</v>
       </c>
     </row>
     <row r="9">
@@ -3994,19 +3994,19 @@
         <v>9229</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4174</v>
+        <v>4859</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16584</v>
+        <v>16729</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03794347239597815</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01716217199487388</v>
+        <v>0.01997597473353523</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06817848243922513</v>
+        <v>0.06877620426615334</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -4015,19 +4015,19 @@
         <v>10199</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5072</v>
+        <v>5113</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17516</v>
+        <v>18234</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05391329287605479</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02680887405766184</v>
+        <v>0.02702715114618939</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09258904199521156</v>
+        <v>0.09638755507255305</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -4036,19 +4036,19 @@
         <v>19428</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12477</v>
+        <v>11857</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29388</v>
+        <v>30455</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04493009971363516</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0288537073097842</v>
+        <v>0.02742019692846345</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06796176610283787</v>
+        <v>0.07043075641026554</v>
       </c>
     </row>
     <row r="11">
@@ -4065,19 +4065,19 @@
         <v>10955</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5167</v>
+        <v>5313</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19562</v>
+        <v>20285</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0450369787342873</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02124284299205188</v>
+        <v>0.02184160760156342</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08042245475421846</v>
+        <v>0.08339774106282756</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -4086,19 +4086,19 @@
         <v>16043</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9704</v>
+        <v>9702</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>24915</v>
+        <v>24665</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08480480266354191</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05129376799375893</v>
+        <v>0.05128724127284987</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1317007631676384</v>
+        <v>0.1303786436449428</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>26</v>
@@ -4107,19 +4107,19 @@
         <v>26998</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>18359</v>
+        <v>17915</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>38988</v>
+        <v>38309</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0624349805073524</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04245642201898541</v>
+        <v>0.04143105304365101</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09016415505010918</v>
+        <v>0.08859363255309577</v>
       </c>
     </row>
     <row r="12">
@@ -4136,19 +4136,19 @@
         <v>43950</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>31622</v>
+        <v>31189</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>57942</v>
+        <v>58046</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1806886790691663</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1300061132344337</v>
+        <v>0.1282240459346028</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2382135636005383</v>
+        <v>0.2386393892813929</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>32</v>
@@ -4157,19 +4157,19 @@
         <v>33348</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>23679</v>
+        <v>23808</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>44591</v>
+        <v>44813</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1762823825309163</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1251700256405588</v>
+        <v>0.1258485704826922</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.235713282051129</v>
+        <v>0.2368843545801919</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>72</v>
@@ -4178,19 +4178,19 @@
         <v>77299</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>61788</v>
+        <v>62378</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>95429</v>
+        <v>95197</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1787609710024262</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1428914634372618</v>
+        <v>0.1442545742896323</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2206899292120807</v>
+        <v>0.2201522468805691</v>
       </c>
     </row>
     <row r="13">
@@ -4207,19 +4207,19 @@
         <v>86259</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>71344</v>
+        <v>70883</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>103619</v>
+        <v>102225</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.35462998407457</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2933126189449031</v>
+        <v>0.2914137221579617</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4259987025921553</v>
+        <v>0.4202683354317657</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>59</v>
@@ -4228,19 +4228,19 @@
         <v>61070</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>48628</v>
+        <v>48732</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74949</v>
+        <v>74720</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3228225216107191</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2570521917942589</v>
+        <v>0.2576009992941781</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3961874651408934</v>
+        <v>0.3949762847326882</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>139</v>
@@ -4249,19 +4249,19 @@
         <v>147329</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>127048</v>
+        <v>127612</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>167074</v>
+        <v>168208</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3407145561314361</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2938107802197786</v>
+        <v>0.2951158886082124</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3863771187877404</v>
+        <v>0.3889976891518241</v>
       </c>
     </row>
     <row r="14">
@@ -4278,19 +4278,19 @@
         <v>92844</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>76227</v>
+        <v>77256</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>109152</v>
+        <v>109642</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3817008857259983</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3133837317604269</v>
+        <v>0.3176181141141247</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4487478173958013</v>
+        <v>0.4507631235391772</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>65</v>
@@ -4299,19 +4299,19 @@
         <v>68515</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>54861</v>
+        <v>55344</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>81982</v>
+        <v>82054</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3621770003187679</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2900022798721752</v>
+        <v>0.2925506118949138</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4333636807153374</v>
+        <v>0.4337438816108196</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>149</v>
@@ -4320,19 +4320,19 @@
         <v>161359</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>141467</v>
+        <v>139281</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>181684</v>
+        <v>181222</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3731593926451501</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3271582912222841</v>
+        <v>0.3221013628920953</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4201641097162624</v>
+        <v>0.4190956895126499</v>
       </c>
     </row>
     <row r="15">
@@ -4424,19 +4424,19 @@
         <v>5916</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1974</v>
+        <v>1984</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13459</v>
+        <v>13408</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02734979494016384</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009126460955767328</v>
+        <v>0.009173063385459892</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06221618829721703</v>
+        <v>0.06197874300973695</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6089</v>
+        <v>6043</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02673094049090995</v>
@@ -4457,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09350616540950023</v>
+        <v>0.0927957486349574</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -4466,19 +4466,19 @@
         <v>7657</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3086</v>
+        <v>3240</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14869</v>
+        <v>15553</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0272066097262789</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01096607171167032</v>
+        <v>0.0115107624690156</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05282958484901036</v>
+        <v>0.05526195777089692</v>
       </c>
     </row>
     <row r="17">
@@ -4495,19 +4495,19 @@
         <v>12878</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7061</v>
+        <v>7065</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>21723</v>
+        <v>22474</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05953252157475166</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03264038971840736</v>
+        <v>0.03265794709206494</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1004186616587009</v>
+        <v>0.1038918551367843</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6729</v>
+        <v>6083</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03063016605618854</v>
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1033283377600573</v>
+        <v>0.09341835943570685</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -4537,19 +4537,19 @@
         <v>14873</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8906</v>
+        <v>8409</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24359</v>
+        <v>23854</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05284534341566528</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0316443357275527</v>
+        <v>0.02987965357482695</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08655124423414057</v>
+        <v>0.08475497577191562</v>
       </c>
     </row>
     <row r="18">
@@ -4566,19 +4566,19 @@
         <v>50673</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>39910</v>
+        <v>38486</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>64826</v>
+        <v>63300</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2342455109108188</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1844891151214986</v>
+        <v>0.1779064430644073</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2996694266349048</v>
+        <v>0.2926172719870578</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -4587,19 +4587,19 @@
         <v>8529</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3828</v>
+        <v>3742</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>15395</v>
+        <v>15512</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.13098429087169</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05878608977701074</v>
+        <v>0.0574578157649918</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2364095680264382</v>
+        <v>0.2382078662457123</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>56</v>
@@ -4608,19 +4608,19 @@
         <v>59203</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>45730</v>
+        <v>45788</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>74845</v>
+        <v>75963</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2103538189384199</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1624854858848265</v>
+        <v>0.1626916683694656</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.265931652279263</v>
+        <v>0.2699071064738011</v>
       </c>
     </row>
     <row r="19">
@@ -4637,19 +4637,19 @@
         <v>83663</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>70342</v>
+        <v>69642</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>98530</v>
+        <v>98889</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3867461373059722</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3251684684782764</v>
+        <v>0.3219328303238942</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4554727635190763</v>
+        <v>0.4571311567678685</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>24</v>
@@ -4658,19 +4658,19 @@
         <v>24036</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17032</v>
+        <v>16723</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32498</v>
+        <v>31547</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.369110207504983</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2615629285503579</v>
+        <v>0.2568141450597424</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4990623404056091</v>
+        <v>0.4844579690136959</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>104</v>
@@ -4679,19 +4679,19 @@
         <v>107699</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>91489</v>
+        <v>90278</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>124248</v>
+        <v>124665</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.382665687721003</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3250717314554268</v>
+        <v>0.3207695132343311</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4414680919807419</v>
+        <v>0.4429488528454654</v>
       </c>
     </row>
     <row r="20">
@@ -4708,19 +4708,19 @@
         <v>63194</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>50545</v>
+        <v>50507</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>78068</v>
+        <v>78030</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2921260352682934</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2336547029260993</v>
+        <v>0.233475316680214</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3608819392338324</v>
+        <v>0.3607066813170917</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>28</v>
@@ -4729,19 +4729,19 @@
         <v>28818</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>20619</v>
+        <v>20723</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>36848</v>
+        <v>36567</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4425443950762285</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3166403861529227</v>
+        <v>0.3182329745439412</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5658718055416242</v>
+        <v>0.5615562270183589</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>86</v>
@@ -4750,19 +4750,19 @@
         <v>92012</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>76415</v>
+        <v>75788</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>108614</v>
+        <v>108029</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.326928540198633</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2715127953902625</v>
+        <v>0.2692823046627968</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3859174370186386</v>
+        <v>0.3838402284948639</v>
       </c>
     </row>
     <row r="21">
@@ -4854,19 +4854,19 @@
         <v>15324</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8972</v>
+        <v>8971</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24454</v>
+        <v>24627</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03141990472951198</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01839559519889154</v>
+        <v>0.01839512728544888</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05014085983256861</v>
+        <v>0.0504961049718427</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -4875,19 +4875,19 @@
         <v>9761</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5015</v>
+        <v>4907</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16782</v>
+        <v>17507</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02674605273311598</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01374134473613572</v>
+        <v>0.01344475187285088</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04598459018113561</v>
+        <v>0.04797116177667962</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>25</v>
@@ -4896,19 +4896,19 @@
         <v>25084</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16866</v>
+        <v>15929</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>35294</v>
+        <v>35694</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0294194374904184</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01978056322640373</v>
+        <v>0.0186823461581417</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04139421825880372</v>
+        <v>0.04186263357098297</v>
       </c>
     </row>
     <row r="23">
@@ -4925,19 +4925,19 @@
         <v>19563</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11636</v>
+        <v>12474</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>29834</v>
+        <v>30540</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04011298003575566</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02385808376584536</v>
+        <v>0.02557673330244743</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06117234492472771</v>
+        <v>0.06261960143397644</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>23</v>
@@ -4946,19 +4946,19 @@
         <v>22958</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>15006</v>
+        <v>15300</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>32267</v>
+        <v>34005</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06290970533250766</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04111964615640881</v>
+        <v>0.04192329466485765</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0884172738625482</v>
+        <v>0.09317885955924661</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>41</v>
@@ -4967,19 +4967,19 @@
         <v>42521</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>30908</v>
+        <v>30844</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>56153</v>
+        <v>56458</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04987026420948075</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03624935867461265</v>
+        <v>0.03617483135948511</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06585762868757869</v>
+        <v>0.06621556243020373</v>
       </c>
     </row>
     <row r="24">
@@ -4996,19 +4996,19 @@
         <v>92641</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>76396</v>
+        <v>76070</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>110798</v>
+        <v>111480</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1899540218570205</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1566450282432902</v>
+        <v>0.1559761732802838</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2271833064260678</v>
+        <v>0.2285832142000368</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>56</v>
@@ -5017,19 +5017,19 @@
         <v>55923</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>44206</v>
+        <v>43374</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>71807</v>
+        <v>71160</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1532379174307939</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1211306210811784</v>
+        <v>0.1188517939433307</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1967627850850875</v>
+        <v>0.194988551288262</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>144</v>
@@ -5038,19 +5038,19 @@
         <v>148564</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>126845</v>
+        <v>126119</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>172639</v>
+        <v>171151</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1742390689427131</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1487671792980705</v>
+        <v>0.147915082842116</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2024754029585401</v>
+        <v>0.2007298497508227</v>
       </c>
     </row>
     <row r="25">
@@ -5067,19 +5067,19 @@
         <v>142460</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>123252</v>
+        <v>123813</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>162422</v>
+        <v>163359</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.292105006441037</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2527199320114447</v>
+        <v>0.253870188135365</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.333036448343459</v>
+        <v>0.3349581560488656</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>99</v>
@@ -5088,19 +5088,19 @@
         <v>97972</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>82097</v>
+        <v>81197</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>115448</v>
+        <v>114699</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2684578845460485</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2249602287018836</v>
+        <v>0.2224931982304763</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3163452392346369</v>
+        <v>0.3142944551650937</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>236</v>
@@ -5109,19 +5109,19 @@
         <v>240431</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>214142</v>
+        <v>215972</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>266352</v>
+        <v>266694</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2819837418639272</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2511512481000647</v>
+        <v>0.2532978682543913</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3123847031260831</v>
+        <v>0.3127855888025187</v>
       </c>
     </row>
     <row r="26">
@@ -5138,19 +5138,19 @@
         <v>217714</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>196141</v>
+        <v>196450</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>241290</v>
+        <v>240008</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4464080869366749</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.402175434668795</v>
+        <v>0.4028084687190913</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4947495953974855</v>
+        <v>0.4921219394280685</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>172</v>
@@ -5159,19 +5159,19 @@
         <v>178328</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>158748</v>
+        <v>158922</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>196325</v>
+        <v>197050</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4886484399575339</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4349964570327932</v>
+        <v>0.4354715240732508</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5379610199037715</v>
+        <v>0.5399492927020527</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>377</v>
@@ -5180,19 +5180,19 @@
         <v>396042</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>364439</v>
+        <v>366401</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>427695</v>
+        <v>424667</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4644874874934606</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4274235905745046</v>
+        <v>0.4297242944102737</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5016115825397131</v>
+        <v>0.4980597848710985</v>
       </c>
     </row>
     <row r="27">
@@ -5284,19 +5284,19 @@
         <v>3590</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>10572</v>
+        <v>10116</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01859837704921101</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.004934842640327747</v>
+        <v>0.004895429899406321</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05477245457643258</v>
+        <v>0.05240798469091941</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -5305,19 +5305,19 @@
         <v>7518</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3089</v>
+        <v>3261</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>15234</v>
+        <v>15254</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03804123267852877</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01563060746576641</v>
+        <v>0.01650202751223447</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07708948510191192</v>
+        <v>0.07719126537004159</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>10</v>
@@ -5326,19 +5326,19 @@
         <v>11108</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5577</v>
+        <v>5501</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>20042</v>
+        <v>20143</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0284342123786318</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01427657564151296</v>
+        <v>0.01408271026513704</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0513048027108008</v>
+        <v>0.0515647828696861</v>
       </c>
     </row>
     <row r="29">
@@ -5355,19 +5355,19 @@
         <v>12921</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7454</v>
+        <v>7179</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>22850</v>
+        <v>20918</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06694311447262329</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03861632116535729</v>
+        <v>0.03719196208342777</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1183814804556223</v>
+        <v>0.1083705421939651</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>9</v>
@@ -5376,19 +5376,19 @@
         <v>8915</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3947</v>
+        <v>4495</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>16035</v>
+        <v>16427</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04511075354123445</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01997463177489248</v>
+        <v>0.0227473273334434</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08113936594028921</v>
+        <v>0.08312629214841506</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>21</v>
@@ -5397,19 +5397,19 @@
         <v>21836</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>14109</v>
+        <v>14266</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>32914</v>
+        <v>32217</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0558984659360258</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03611825072412992</v>
+        <v>0.03651924117893928</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08425593347138899</v>
+        <v>0.08247244847413933</v>
       </c>
     </row>
     <row r="30">
@@ -5426,19 +5426,19 @@
         <v>41457</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>29485</v>
+        <v>31057</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>53202</v>
+        <v>54016</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2147808799110719</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1527552168169389</v>
+        <v>0.1608994378279238</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2756279482002937</v>
+        <v>0.2798454373324945</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>36</v>
@@ -5447,19 +5447,19 @@
         <v>37332</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>27121</v>
+        <v>27043</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>49649</v>
+        <v>48055</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1889099947585311</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1372412685563931</v>
+        <v>0.136843869205813</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2512336233234963</v>
+        <v>0.2431717809565657</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>74</v>
@@ -5468,19 +5468,19 @@
         <v>78789</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>64074</v>
+        <v>63279</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>96815</v>
+        <v>95301</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2016932053925692</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.164022483273789</v>
+        <v>0.1619875654013611</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2478357407046428</v>
+        <v>0.2439600765310815</v>
       </c>
     </row>
     <row r="31">
@@ -5497,19 +5497,19 @@
         <v>56324</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>44935</v>
+        <v>44110</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>70347</v>
+        <v>70810</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2917986185056636</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2327970322858503</v>
+        <v>0.228524055467645</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3644521367300081</v>
+        <v>0.3668512028822001</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>60</v>
@@ -5518,19 +5518,19 @@
         <v>60351</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>47802</v>
+        <v>48491</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>73617</v>
+        <v>73599</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3053908187925674</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2418873410999726</v>
+        <v>0.2453752585383017</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3725182788147764</v>
+        <v>0.3724282945497603</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>111</v>
@@ -5539,19 +5539,19 @@
         <v>116674</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>98364</v>
+        <v>99462</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>135467</v>
+        <v>135572</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2986746991769051</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2518010094796707</v>
+        <v>0.2546118531970658</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3467826824942135</v>
+        <v>0.3470506365766873</v>
       </c>
     </row>
     <row r="32">
@@ -5568,19 +5568,19 @@
         <v>78730</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>66051</v>
+        <v>64477</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>93805</v>
+        <v>92734</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4078790100614303</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3421928363139886</v>
+        <v>0.3340394452049866</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4859795196783813</v>
+        <v>0.480431668939035</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>80</v>
@@ -5589,19 +5589,19 @@
         <v>83503</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>68196</v>
+        <v>71415</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>97402</v>
+        <v>99121</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4225472002291382</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3450898326581915</v>
+        <v>0.3613776285963354</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4928783188160766</v>
+        <v>0.5015781454193526</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>152</v>
@@ -5610,19 +5610,19 @@
         <v>162233</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>142003</v>
+        <v>141187</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>182281</v>
+        <v>182402</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.415299417115868</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3635140447453613</v>
+        <v>0.3614240203630806</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4666214803836196</v>
+        <v>0.4669314378488941</v>
       </c>
     </row>
     <row r="33">
@@ -5714,19 +5714,19 @@
         <v>40899</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>29614</v>
+        <v>29412</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>55787</v>
+        <v>54598</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02887694612523046</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.020908799418947</v>
+        <v>0.02076642527688913</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03938788240732224</v>
+        <v>0.03854885768050711</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>36</v>
@@ -5735,19 +5735,19 @@
         <v>35803</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>25387</v>
+        <v>26130</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>48431</v>
+        <v>48226</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03472516957439034</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02462340216455562</v>
+        <v>0.0253433181804763</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04697297824711127</v>
+        <v>0.04677485656092902</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>74</v>
@@ -5756,19 +5756,19 @@
         <v>76702</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>60659</v>
+        <v>61190</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>96545</v>
+        <v>95084</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03134069175380633</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0247852781963853</v>
+        <v>0.02500253216682281</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03944849807998212</v>
+        <v>0.03885172887195514</v>
       </c>
     </row>
     <row r="35">
@@ -5785,19 +5785,19 @@
         <v>74402</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>58491</v>
+        <v>58342</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>93587</v>
+        <v>92544</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05253096606527831</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04129722136682868</v>
+        <v>0.04119243486667921</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.06607675721116009</v>
+        <v>0.06534066342914352</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>59</v>
@@ -5806,19 +5806,19 @@
         <v>59502</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>47075</v>
+        <v>46647</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>77999</v>
+        <v>77026</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05771171673095769</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04565803786726259</v>
+        <v>0.0452436168049374</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07565151288631426</v>
+        <v>0.07470788004791605</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>128</v>
@@ -5827,19 +5827,19 @@
         <v>133904</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>112780</v>
+        <v>110389</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>157186</v>
+        <v>157200</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.05471351806868077</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04608204865932962</v>
+        <v>0.04510504781249017</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06422648636567159</v>
+        <v>0.06423238599798499</v>
       </c>
     </row>
     <row r="36">
@@ -5856,19 +5856,19 @@
         <v>268857</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>241524</v>
+        <v>241055</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>303390</v>
+        <v>298634</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1898256662271304</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1705272876136296</v>
+        <v>0.1701963190533299</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.214207179930209</v>
+        <v>0.2108498586725132</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>169</v>
@@ -5877,19 +5877,19 @@
         <v>173494</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>152161</v>
+        <v>150495</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>199585</v>
+        <v>201555</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1682726554899746</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1475812328771069</v>
+        <v>0.1459661329987595</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1935780389266969</v>
+        <v>0.1954891318659834</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>421</v>
@@ -5898,19 +5898,19 @@
         <v>442351</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>405032</v>
+        <v>404251</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>481515</v>
+        <v>479595</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1807457915527206</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1654969735503578</v>
+        <v>0.1651778583564537</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1967481666343217</v>
+        <v>0.1959636343799548</v>
       </c>
     </row>
     <row r="37">
@@ -5927,19 +5927,19 @@
         <v>463126</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>427544</v>
+        <v>430092</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>499960</v>
+        <v>499628</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.326988894843232</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3018659828739543</v>
+        <v>0.3036648059406429</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3529952591769845</v>
+        <v>0.3527610305467559</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>308</v>
@@ -5948,19 +5948,19 @@
         <v>310578</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>282652</v>
+        <v>284513</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>339553</v>
+        <v>346512</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3012306723433634</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2741458401370643</v>
+        <v>0.2759508812746835</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3293345382915023</v>
+        <v>0.3360841091814655</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>743</v>
@@ -5969,19 +5969,19 @@
         <v>773704</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>725893</v>
+        <v>730250</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>820441</v>
+        <v>822888</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3161374442043114</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2966019978539861</v>
+        <v>0.2983820921787554</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3352345843034384</v>
+        <v>0.3362343364371316</v>
       </c>
     </row>
     <row r="38">
@@ -5998,19 +5998,19 @@
         <v>569052</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>530655</v>
+        <v>527290</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>606214</v>
+        <v>604048</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.4017775267391289</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3746674596194145</v>
+        <v>0.3722911090306842</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.428015330879524</v>
+        <v>0.4264861716968462</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>435</v>
@@ -6019,19 +6019,19 @@
         <v>451652</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>422032</v>
+        <v>418871</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>484477</v>
+        <v>484715</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4380597858613139</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4093309213466388</v>
+        <v>0.406264684749602</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.469896107968236</v>
+        <v>0.470126933173125</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>958</v>
@@ -6040,19 +6040,19 @@
         <v>1020704</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>970225</v>
+        <v>973157</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1074248</v>
+        <v>1072717</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4170625544204808</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3964367056246909</v>
+        <v>0.3976346743829389</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4389405747884605</v>
+        <v>0.4383149014372583</v>
       </c>
     </row>
     <row r="39">
@@ -6385,19 +6385,19 @@
         <v>13791</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7194</v>
+        <v>6622</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25327</v>
+        <v>23226</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1401426771253888</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07310862180340151</v>
+        <v>0.06729688360310591</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2573736583469703</v>
+        <v>0.2360275210889909</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5032</v>
+        <v>4533</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01576428064399581</v>
@@ -6418,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05821880795007445</v>
+        <v>0.05243930797946006</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -6427,19 +6427,19 @@
         <v>15153</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8010</v>
+        <v>7874</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26657</v>
+        <v>25992</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08197970284325408</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04333213214341782</v>
+        <v>0.04259919146979652</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1442123611218031</v>
+        <v>0.1406170183419334</v>
       </c>
     </row>
     <row r="5">
@@ -6459,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7758</v>
+        <v>7040</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02214983834575327</v>
@@ -6468,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07884042231598752</v>
+        <v>0.07153665799900605</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -6477,19 +6477,19 @@
         <v>3291</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1128</v>
+        <v>1249</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6660</v>
+        <v>7268</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03807858520939473</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01304424304544251</v>
+        <v>0.01445311535194445</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07704615052611501</v>
+        <v>0.08408836867736268</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -6498,19 +6498,19 @@
         <v>5471</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2290</v>
+        <v>2010</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11545</v>
+        <v>10764</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02959858604138071</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01239109726584882</v>
+        <v>0.01087477110687062</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06245832550171007</v>
+        <v>0.058234436776558</v>
       </c>
     </row>
     <row r="6">
@@ -6527,19 +6527,19 @@
         <v>16950</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10360</v>
+        <v>9618</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26127</v>
+        <v>25416</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1722516803157943</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1052786283612338</v>
+        <v>0.09773514887582231</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2655068744315423</v>
+        <v>0.258279051364552</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>22</v>
@@ -6548,19 +6548,19 @@
         <v>16320</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10181</v>
+        <v>10596</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23132</v>
+        <v>23843</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.188803526435848</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1177842876950984</v>
+        <v>0.1225881261829373</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2676090184759426</v>
+        <v>0.2758340429568762</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>38</v>
@@ -6569,19 +6569,19 @@
         <v>33270</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>23891</v>
+        <v>23478</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>45060</v>
+        <v>44303</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1799918074394509</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1292529829522764</v>
+        <v>0.1270160666651264</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2437782451669605</v>
+        <v>0.2396811618260806</v>
       </c>
     </row>
     <row r="7">
@@ -6598,19 +6598,19 @@
         <v>24534</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16117</v>
+        <v>16645</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34055</v>
+        <v>35283</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2493187086849459</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1637801960625553</v>
+        <v>0.1691431186201238</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3460742420634321</v>
+        <v>0.3585485282446578</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -6619,19 +6619,19 @@
         <v>21776</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15017</v>
+        <v>15432</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29407</v>
+        <v>30145</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2519311086426523</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1737336238024765</v>
+        <v>0.1785290897497166</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.340204874768285</v>
+        <v>0.3487494343612799</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>52</v>
@@ -6640,19 +6640,19 @@
         <v>46310</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35788</v>
+        <v>36085</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>59629</v>
+        <v>59220</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2505403432762671</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1936160844394063</v>
+        <v>0.1952196221606869</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3225920371067525</v>
+        <v>0.3203791576638054</v>
       </c>
     </row>
     <row r="8">
@@ -6669,19 +6669,19 @@
         <v>40950</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>29118</v>
+        <v>30557</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>53195</v>
+        <v>54702</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4161370955281178</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2959002837776424</v>
+        <v>0.3105276255829237</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5405736257122119</v>
+        <v>0.5558852316088058</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>52</v>
@@ -6690,19 +6690,19 @@
         <v>43688</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>35869</v>
+        <v>34551</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>52333</v>
+        <v>52797</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.505422499068109</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4149678520439283</v>
+        <v>0.399723164139518</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6054433613502873</v>
+        <v>0.6108097500401013</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>82</v>
@@ -6711,19 +6711,19 @@
         <v>84637</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>70957</v>
+        <v>70027</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>99026</v>
+        <v>98462</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4578895603996473</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.383880298719505</v>
+        <v>0.3788484712369845</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.535733883521417</v>
+        <v>0.5326841060237567</v>
       </c>
     </row>
     <row r="9">
@@ -6815,19 +6815,19 @@
         <v>6638</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2269</v>
+        <v>2275</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13822</v>
+        <v>12875</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.09023520185940886</v>
+        <v>0.09023520185940891</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03083886337121727</v>
+        <v>0.03093055724360589</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.187882579535261</v>
+        <v>0.1750189780681684</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -6836,19 +6836,19 @@
         <v>6752</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3201</v>
+        <v>3236</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11941</v>
+        <v>11955</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1010174769202575</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04788711923616764</v>
+        <v>0.04841118110408468</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1786425115087531</v>
+        <v>0.1788499779641085</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -6857,19 +6857,19 @@
         <v>13390</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7932</v>
+        <v>7521</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21829</v>
+        <v>21683</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0953681466874563</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05649339192512193</v>
+        <v>0.0535644381742868</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1554712237056476</v>
+        <v>0.1544280847232434</v>
       </c>
     </row>
     <row r="11">
@@ -6886,19 +6886,19 @@
         <v>4810</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1044</v>
+        <v>1020</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13282</v>
+        <v>13148</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.06537765203853886</v>
+        <v>0.06537765203853887</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01418475642053543</v>
+        <v>0.01386256725354412</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1805455098740209</v>
+        <v>0.1787298316435982</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -6907,19 +6907,19 @@
         <v>3359</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1195</v>
+        <v>1240</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7748</v>
+        <v>7655</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.05024949345911738</v>
+        <v>0.05024949345911735</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01787406852080894</v>
+        <v>0.01854454889378324</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1159243038765749</v>
+        <v>0.1145186899363495</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -6928,19 +6928,19 @@
         <v>8168</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3627</v>
+        <v>3301</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>16572</v>
+        <v>17806</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.05817583211649997</v>
+        <v>0.05817583211649996</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02583219612696497</v>
+        <v>0.02350797592547576</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1180310400227839</v>
+        <v>0.1268162225101486</v>
       </c>
     </row>
     <row r="12">
@@ -6957,19 +6957,19 @@
         <v>14453</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8031</v>
+        <v>8066</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22878</v>
+        <v>22408</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1964665761375587</v>
+        <v>0.1964665761375588</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1091667087201301</v>
+        <v>0.1096471694973669</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.310983627298423</v>
+        <v>0.3045981603098717</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -6978,19 +6978,19 @@
         <v>11884</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7519</v>
+        <v>7092</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18791</v>
+        <v>18143</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.177796859429796</v>
+        <v>0.1777968594297959</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.112485691357212</v>
+        <v>0.106095310135458</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2811254192151529</v>
+        <v>0.2714313998473679</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>29</v>
@@ -6999,19 +6999,19 @@
         <v>26337</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>18563</v>
+        <v>18034</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>35468</v>
+        <v>36656</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1875787834152055</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1322095225289874</v>
+        <v>0.1284436317574975</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2526085496945383</v>
+        <v>0.2610664796343668</v>
       </c>
     </row>
     <row r="13">
@@ -7028,19 +7028,19 @@
         <v>21755</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14727</v>
+        <v>14535</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31782</v>
+        <v>30804</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2957158739322884</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2001808401600444</v>
+        <v>0.1975830148573507</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4320243133602022</v>
+        <v>0.4187311462388565</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -7049,19 +7049,19 @@
         <v>16381</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10357</v>
+        <v>10453</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24122</v>
+        <v>24287</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2450784613102841</v>
+        <v>0.245078461310284</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1549443695148749</v>
+        <v>0.1563790140778821</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3608814841308061</v>
+        <v>0.3633512006510198</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>38</v>
@@ -7070,19 +7070,19 @@
         <v>38136</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>27777</v>
+        <v>27952</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>50002</v>
+        <v>50134</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2716097327183986</v>
+        <v>0.2716097327183985</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1978336232119547</v>
+        <v>0.1990762256588581</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3561192484987779</v>
+        <v>0.3570635173992848</v>
       </c>
     </row>
     <row r="14">
@@ -7099,19 +7099,19 @@
         <v>25910</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16715</v>
+        <v>17885</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>36186</v>
+        <v>35413</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.352204696032205</v>
+        <v>0.3522046960322051</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2272086506514708</v>
+        <v>0.2431141313625648</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4918863330091673</v>
+        <v>0.4813726390527747</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>36</v>
@@ -7120,19 +7120,19 @@
         <v>28465</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20835</v>
+        <v>20988</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35183</v>
+        <v>35961</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.4258577088805452</v>
+        <v>0.4258577088805451</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3117107441688944</v>
+        <v>0.3139998725561747</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5263712827293568</v>
+        <v>0.5380032331696665</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>58</v>
@@ -7141,19 +7141,19 @@
         <v>54375</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>43870</v>
+        <v>42898</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>66479</v>
+        <v>65636</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.3872675050624398</v>
+        <v>0.3872675050624396</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.312447099412165</v>
+        <v>0.3055263469456375</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4734749681690952</v>
+        <v>0.4674693435157197</v>
       </c>
     </row>
     <row r="15">
@@ -7248,7 +7248,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10112</v>
+        <v>9926</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02625477567524742</v>
@@ -7257,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.145878230585689</v>
+        <v>0.1431963442890439</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -7269,7 +7269,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2323</v>
+        <v>2711</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01723877667629278</v>
@@ -7278,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08318713157929142</v>
+        <v>0.09704720948513113</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -7290,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11334</v>
+        <v>10138</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02366525861948105</v>
@@ -7299,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1165449209863979</v>
+        <v>0.1042453087976881</v>
       </c>
     </row>
     <row r="17">
@@ -7316,19 +7316,19 @@
         <v>4862</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1804</v>
+        <v>1839</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10852</v>
+        <v>11183</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.07013852344325081</v>
+        <v>0.07013852344325079</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02602403892614361</v>
+        <v>0.02653133076209211</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1565502231180933</v>
+        <v>0.1613293586020416</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -7340,16 +7340,16 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6633</v>
+        <v>5830</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.06187673853440397</v>
+        <v>0.06187673853440398</v>
       </c>
       <c r="O17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2374904864253903</v>
+        <v>0.2087380098618956</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -7358,19 +7358,19 @@
         <v>6590</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2853</v>
+        <v>2733</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>12721</v>
+        <v>13142</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06776562689179681</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0293371144817622</v>
+        <v>0.02810238673471177</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1308105989309142</v>
+        <v>0.1351358476411434</v>
       </c>
     </row>
     <row r="18">
@@ -7387,19 +7387,19 @@
         <v>20606</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12531</v>
+        <v>13113</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>30368</v>
+        <v>29849</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2972606739136056</v>
+        <v>0.2972606739136055</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1807766368545177</v>
+        <v>0.1891708060187248</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4380916912330945</v>
+        <v>0.4306123796219476</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>7</v>
@@ -7408,19 +7408,19 @@
         <v>4143</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8045</v>
+        <v>7948</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.1483146052913394</v>
+        <v>0.1483146052913395</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0590045899982295</v>
+        <v>0.05886373083089902</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2880347801436945</v>
+        <v>0.2845735054780464</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>23</v>
@@ -7429,19 +7429,19 @@
         <v>24748</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>16359</v>
+        <v>16613</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>35592</v>
+        <v>36112</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2544813451746132</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.168221009807834</v>
+        <v>0.1708289530098253</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3659880287236147</v>
+        <v>0.3713314945314736</v>
       </c>
     </row>
     <row r="19">
@@ -7458,19 +7458,19 @@
         <v>16929</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9706</v>
+        <v>9420</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26796</v>
+        <v>26928</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2442237974097976</v>
+        <v>0.2442237974097975</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.140025564409166</v>
+        <v>0.1358903483775785</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3865646684334788</v>
+        <v>0.3884776373105492</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -7479,19 +7479,19 @@
         <v>10309</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5836</v>
+        <v>5567</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16877</v>
+        <v>16982</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3690929260038593</v>
+        <v>0.3690929260038594</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2089526722006345</v>
+        <v>0.1992999536237084</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6042484207060768</v>
+        <v>0.6080048033263045</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>23</v>
@@ -7500,19 +7500,19 @@
         <v>27238</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18773</v>
+        <v>17259</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>38852</v>
+        <v>39115</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2800879027929613</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1930398939297096</v>
+        <v>0.1774732191114348</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3995122445984908</v>
+        <v>0.4022106557574472</v>
       </c>
     </row>
     <row r="20">
@@ -7529,19 +7529,19 @@
         <v>25102</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>16573</v>
+        <v>16379</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>35061</v>
+        <v>35577</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3621222295580985</v>
+        <v>0.3621222295580984</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2390875464317402</v>
+        <v>0.236290302239219</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5057963635441496</v>
+        <v>0.5132365675743089</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>13</v>
@@ -7550,19 +7550,19 @@
         <v>11270</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6062</v>
+        <v>6241</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16399</v>
+        <v>15998</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4034769534941044</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.217037577697739</v>
+        <v>0.2234337349642662</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5871389139780598</v>
+        <v>0.5727811387710583</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>34</v>
@@ -7571,19 +7571,19 @@
         <v>36371</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>25987</v>
+        <v>25629</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>47545</v>
+        <v>47646</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.3739998665211475</v>
+        <v>0.3739998665211476</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2672209949964172</v>
+        <v>0.2635447091674157</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4889031871112234</v>
+        <v>0.4899374783555812</v>
       </c>
     </row>
     <row r="21">
@@ -7678,16 +7678,16 @@
         <v>866</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9955</v>
+        <v>10471</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.02686307529903899</v>
+        <v>0.02686307529903898</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006470704869649431</v>
+        <v>0.006472161673502023</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07439937262228888</v>
+        <v>0.07825252028864108</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -7696,19 +7696,19 @@
         <v>5560</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2632</v>
+        <v>2555</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10800</v>
+        <v>10279</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.04783516934772892</v>
+        <v>0.04783516934772893</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02264783969584179</v>
+        <v>0.02198262558647515</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09292591431215509</v>
+        <v>0.08843964700082675</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -7717,19 +7717,19 @@
         <v>9154</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4338</v>
+        <v>4664</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>16549</v>
+        <v>15719</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03661179423463209</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01735162797975007</v>
+        <v>0.01865544931109893</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0661860944928183</v>
+        <v>0.06286675139659358</v>
       </c>
     </row>
     <row r="23">
@@ -7746,19 +7746,19 @@
         <v>8122</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3441</v>
+        <v>3598</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17120</v>
+        <v>15770</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06069803953282741</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02571653033940295</v>
+        <v>0.0268907516864217</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1279448810548844</v>
+        <v>0.1178586400201018</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -7767,19 +7767,19 @@
         <v>6327</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3056</v>
+        <v>2855</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>13456</v>
+        <v>12487</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.05443596279939628</v>
+        <v>0.05443596279939629</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02629489236651087</v>
+        <v>0.02456627906378785</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1157752267384877</v>
+        <v>0.1074366402727425</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>14</v>
@@ -7788,19 +7788,19 @@
         <v>14449</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>8356</v>
+        <v>8274</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>23253</v>
+        <v>24279</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05778716063415345</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03342081971214703</v>
+        <v>0.0330932413897961</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09299838011985175</v>
+        <v>0.09710208727436002</v>
       </c>
     </row>
     <row r="24">
@@ -7817,19 +7817,19 @@
         <v>21135</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13257</v>
+        <v>12327</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>32050</v>
+        <v>32058</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1579488087051648</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09907136068392185</v>
+        <v>0.0921238275930925</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2395243419322345</v>
+        <v>0.2395845732435028</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>26</v>
@@ -7838,19 +7838,19 @@
         <v>19814</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>13370</v>
+        <v>13733</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>27659</v>
+        <v>27928</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1704744325226852</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1150304230091845</v>
+        <v>0.1181613639666217</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2379782062546945</v>
+        <v>0.2402944217192159</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>45</v>
@@ -7859,19 +7859,19 @@
         <v>40948</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>30259</v>
+        <v>29705</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>54031</v>
+        <v>53008</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1637712499838699</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1210191800103311</v>
+        <v>0.1188053680161846</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2160928063246254</v>
+        <v>0.2120036258757363</v>
       </c>
     </row>
     <row r="25">
@@ -7888,19 +7888,19 @@
         <v>33653</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23041</v>
+        <v>23310</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>46226</v>
+        <v>46186</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2515042393471205</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1721966850005611</v>
+        <v>0.1742048984667382</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3454685710939837</v>
+        <v>0.3451664897544102</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>44</v>
@@ -7909,19 +7909,19 @@
         <v>31640</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23106</v>
+        <v>23509</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>40829</v>
+        <v>40994</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2722270214664925</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1988023897293636</v>
+        <v>0.2022655003799721</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3512905753154503</v>
+        <v>0.3527050942100419</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>73</v>
@@ -7930,19 +7930,19 @@
         <v>65293</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>52340</v>
+        <v>52539</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>81882</v>
+        <v>79966</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2611370675223266</v>
+        <v>0.2611370675223265</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2093304239905005</v>
+        <v>0.2101275241068673</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3274842620210185</v>
+        <v>0.3198216787011374</v>
       </c>
     </row>
     <row r="26">
@@ -7959,19 +7959,19 @@
         <v>67304</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>55486</v>
+        <v>54466</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>80936</v>
+        <v>79451</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5029858371158484</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4146699975892502</v>
+        <v>0.4070468966992101</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6048651267213805</v>
+        <v>0.593768287612803</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>63</v>
@@ -7980,19 +7980,19 @@
         <v>52886</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>44525</v>
+        <v>42264</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>63462</v>
+        <v>63236</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4550274138636972</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3830883570272988</v>
+        <v>0.3636380866092291</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5460215558924151</v>
+        <v>0.5440751619893445</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>119</v>
@@ -8001,19 +8001,19 @@
         <v>120190</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>104328</v>
+        <v>103982</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>136757</v>
+        <v>137093</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4806927276250181</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.417255408198324</v>
+        <v>0.4158706420060357</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5469542762199555</v>
+        <v>0.5482977048843183</v>
       </c>
     </row>
     <row r="27">
@@ -8108,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>10538</v>
+        <v>10114</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02456105170820319</v>
@@ -8117,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1117922585271242</v>
+        <v>0.1072935635192631</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -8126,19 +8126,19 @@
         <v>3431</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>12781</v>
+        <v>10638</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03997104936991237</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007554302645277405</v>
+        <v>0.007497010180833265</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.148883749301859</v>
+        <v>0.1239197144105532</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -8147,19 +8147,19 @@
         <v>5747</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1335</v>
+        <v>1403</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>16421</v>
+        <v>16156</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.03190599497400614</v>
+        <v>0.03190599497400613</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.007411366460574669</v>
+        <v>0.007791114251966493</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09117210676050495</v>
+        <v>0.08970003730668104</v>
       </c>
     </row>
     <row r="29">
@@ -8176,19 +8176,19 @@
         <v>7298</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2877</v>
+        <v>2584</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14851</v>
+        <v>15596</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.07741629730895296</v>
+        <v>0.07741629730895297</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03052018989970276</v>
+        <v>0.02741378738765824</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1575435429567419</v>
+        <v>0.165448719864645</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -8197,19 +8197,19 @@
         <v>2156</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5559</v>
+        <v>6066</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02510976919100701</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.007387054241484726</v>
+        <v>0.007450928142152711</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06475712359768006</v>
+        <v>0.07065735471220515</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>9</v>
@@ -8218,19 +8218,19 @@
         <v>9453</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4889</v>
+        <v>3899</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>17576</v>
+        <v>17274</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05248517857088381</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02714182486026701</v>
+        <v>0.02164563994350211</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09758452302993056</v>
+        <v>0.09590528847993131</v>
       </c>
     </row>
     <row r="30">
@@ -8247,19 +8247,19 @@
         <v>16177</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8102</v>
+        <v>9177</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>26825</v>
+        <v>27071</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.1716088168688638</v>
+        <v>0.1716088168688639</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08594881341692261</v>
+        <v>0.0973503181421886</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2845727038106864</v>
+        <v>0.2871778118483089</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>23</v>
@@ -8268,19 +8268,19 @@
         <v>16729</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>10812</v>
+        <v>11040</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>23651</v>
+        <v>23864</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1948660601438268</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1259476253621855</v>
+        <v>0.1286034967080054</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2754993153046086</v>
+        <v>0.2779841592704033</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>36</v>
@@ -8289,19 +8289,19 @@
         <v>32905</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>23021</v>
+        <v>22764</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>44552</v>
+        <v>45019</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1826940315537461</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1278156517443365</v>
+        <v>0.1263884255136673</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2473567656330533</v>
+        <v>0.2499495277157961</v>
       </c>
     </row>
     <row r="31">
@@ -8318,19 +8318,19 @@
         <v>20407</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>11773</v>
+        <v>12617</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>31487</v>
+        <v>31542</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2164909521998492</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1248908301272742</v>
+        <v>0.133844262666947</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3340340496134938</v>
+        <v>0.3346101832749805</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>26</v>
@@ -8339,19 +8339,19 @@
         <v>20611</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>14295</v>
+        <v>14050</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>28855</v>
+        <v>28393</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.240089164159499</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1665213690360689</v>
+        <v>0.1636683609247221</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3361233720899101</v>
+        <v>0.3307350798692236</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>43</v>
@@ -8360,19 +8360,19 @@
         <v>41018</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>30448</v>
+        <v>30157</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>53465</v>
+        <v>55234</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2277386844723015</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1690538703022308</v>
+        <v>0.1674354019594667</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2968474051999358</v>
+        <v>0.3066681483409471</v>
       </c>
     </row>
     <row r="32">
@@ -8389,19 +8389,19 @@
         <v>48067</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>35216</v>
+        <v>35721</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>60202</v>
+        <v>60158</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.5099228819141306</v>
+        <v>0.5099228819141308</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3735865745433136</v>
+        <v>0.3789430909843266</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.638648996401266</v>
+        <v>0.6381817282787925</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>57</v>
@@ -8410,19 +8410,19 @@
         <v>42920</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>35264</v>
+        <v>35136</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>51557</v>
+        <v>51187</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4999639571357548</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4107722940947366</v>
+        <v>0.4092902170576752</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6005739851822099</v>
+        <v>0.5962628648298876</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>88</v>
@@ -8431,19 +8431,19 @@
         <v>90988</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>76538</v>
+        <v>74924</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>106334</v>
+        <v>106452</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5051761104290624</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4249493713742157</v>
+        <v>0.4159871363974754</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5903828473026956</v>
+        <v>0.5910347385892988</v>
       </c>
     </row>
     <row r="33">
@@ -8535,19 +8535,19 @@
         <v>28159</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>18675</v>
+        <v>17754</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>41857</v>
+        <v>43858</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.05999348947325601</v>
+        <v>0.05999348947325602</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0397886195342428</v>
+        <v>0.03782619636867563</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.08917967991461108</v>
+        <v>0.09344290730295127</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>23</v>
@@ -8556,19 +8556,19 @@
         <v>17587</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>11266</v>
+        <v>11436</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>26632</v>
+        <v>26314</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.0458860545863937</v>
+        <v>0.04588605458639369</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02939322709222003</v>
+        <v>0.02983595122285422</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.069483407236026</v>
+        <v>0.06865460271880101</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>44</v>
@@ -8577,19 +8577,19 @@
         <v>45746</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>32932</v>
+        <v>32429</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>61880</v>
+        <v>61377</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.05365185622095626</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03862374763823207</v>
+        <v>0.03803365151206197</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.072574273430423</v>
+        <v>0.07198407849308361</v>
       </c>
     </row>
     <row r="35">
@@ -8606,19 +8606,19 @@
         <v>27270</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>17832</v>
+        <v>17180</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>38754</v>
+        <v>39501</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.0581014451582339</v>
+        <v>0.05810144515823391</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03799229126991271</v>
+        <v>0.03660206364441872</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.08256777868827918</v>
+        <v>0.08415924731964665</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>22</v>
@@ -8627,19 +8627,19 @@
         <v>16861</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>11029</v>
+        <v>11523</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>27053</v>
+        <v>25736</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.04399079193813897</v>
+        <v>0.04399079193813896</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02877599124309585</v>
+        <v>0.03006413212846927</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07058167381194262</v>
+        <v>0.06714691185758712</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>45</v>
@@ -8648,19 +8648,19 @@
         <v>44131</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>31627</v>
+        <v>31995</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>59287</v>
+        <v>59952</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.05175836518729193</v>
+        <v>0.05175836518729192</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03709229479717428</v>
+        <v>0.03752495681893493</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06953281365367599</v>
+        <v>0.07031317840087374</v>
       </c>
     </row>
     <row r="36">
@@ -8677,19 +8677,19 @@
         <v>89320</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>71081</v>
+        <v>70272</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>109181</v>
+        <v>109241</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1903024670952663</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1514422646917253</v>
+        <v>0.1497189221010172</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2326165033000415</v>
+        <v>0.2327443817049863</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>94</v>
@@ -8698,19 +8698,19 @@
         <v>68889</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>56427</v>
+        <v>56667</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>82779</v>
+        <v>83468</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1797332789538603</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1472192309982728</v>
+        <v>0.1478448095772652</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2159730595184904</v>
+        <v>0.2177711704536889</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>171</v>
@@ -8719,19 +8719,19 @@
         <v>158209</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>137717</v>
+        <v>135784</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>182736</v>
+        <v>183381</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1855513613481988</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.161517322796675</v>
+        <v>0.1592508324756332</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2143171474103497</v>
+        <v>0.2150732990428108</v>
       </c>
     </row>
     <row r="37">
@@ -8748,19 +8748,19 @@
         <v>117278</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>97956</v>
+        <v>97112</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>139509</v>
+        <v>140439</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2498684767425119</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2087002671651195</v>
+        <v>0.2069031897615129</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.297232526710232</v>
+        <v>0.2992135885104437</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>129</v>
@@ -8769,19 +8769,19 @@
         <v>100718</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>85594</v>
+        <v>84574</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>116971</v>
+        <v>117404</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2627762302624482</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2233165288104018</v>
+        <v>0.2206572213971611</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3051812039839722</v>
+        <v>0.3063102497570322</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>229</v>
@@ -8790,19 +8790,19 @@
         <v>217996</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>192696</v>
+        <v>194129</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>245615</v>
+        <v>249190</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2556708241990823</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2259984049577261</v>
+        <v>0.2276790436189748</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2880626281620929</v>
+        <v>0.292255908153139</v>
       </c>
     </row>
     <row r="38">
@@ -8819,19 +8819,19 @@
         <v>207332</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>184586</v>
+        <v>182035</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>232544</v>
+        <v>232823</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.4417341215307318</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3932715713037677</v>
+        <v>0.3878360716550742</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4954488993707141</v>
+        <v>0.4960428714512896</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>221</v>
@@ -8840,19 +8840,19 @@
         <v>179229</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>161681</v>
+        <v>161851</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>197141</v>
+        <v>198725</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.4676136442591589</v>
+        <v>0.4676136442591588</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.42183011695549</v>
+        <v>0.422273570963334</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5143476610459324</v>
+        <v>0.5184786297275353</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>381</v>
@@ -8861,19 +8861,19 @@
         <v>386561</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>357174</v>
+        <v>353977</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>416434</v>
+        <v>415192</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4533675930444708</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4189014968176554</v>
+        <v>0.4151519106137948</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4884036434293623</v>
+        <v>0.4869468602081328</v>
       </c>
     </row>
     <row r="39">
